--- a/data/input/absenteeism_data_3.xlsx
+++ b/data/input/absenteeism_data_3.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31443</v>
+        <v>91614</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emilly Oliveira</t>
+          <t>Alexia Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>10160.72</v>
+        <v>10021.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67017</v>
+        <v>62582</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Aragão</t>
+          <t>Ian Souza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>11820.72</v>
+        <v>9086.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91039</v>
+        <v>9312</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Vitória Peixoto</t>
+          <t>Ana Castro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>8398.92</v>
+        <v>12254.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70660</v>
+        <v>2756</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Novaes</t>
+          <t>Ana Laura Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>3737.78</v>
+        <v>6921.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32104</v>
+        <v>41806</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daniel Souza</t>
+          <t>Paulo Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,114 +610,114 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>7342.77</v>
+        <v>4095.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90820</v>
+        <v>89783</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cauã Pires</t>
+          <t>Bruno Fernandes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>7318.03</v>
+        <v>9849.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36462</v>
+        <v>3748</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alexia Martins</t>
+          <t>Heitor Ferreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>6572.48</v>
+        <v>11366.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32839</v>
+        <v>47027</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lorenzo Nascimento</t>
+          <t>Isabella Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>7619.6</v>
+        <v>6908.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77423</v>
+        <v>6706</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heitor Souza</t>
+          <t>Stephany Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>7623.51</v>
+        <v>10091.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>45176</v>
+        <v>29688</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sophie Gomes</t>
+          <t>Sra. Kamilly Barbosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>11219.14</v>
+        <v>8056.25</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_3.xlsx
+++ b/data/input/absenteeism_data_3.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91614</v>
+        <v>31536</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexia Castro</t>
+          <t>Pedro Miguel Novaes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>10021.82</v>
+        <v>3606.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62582</v>
+        <v>68965</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ian Souza</t>
+          <t>Gabriel Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>9086.48</v>
+        <v>3127.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9312</v>
+        <v>48398</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Castro</t>
+          <t>Agatha da Rosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>12254.79</v>
+        <v>12481.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2756</v>
+        <v>11878</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Laura Ferreira</t>
+          <t>Letícia Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,31 +577,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>6921.03</v>
+        <v>4673.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41806</v>
+        <v>41024</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paulo Dias</t>
+          <t>Beatriz Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,51 +610,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>4095.51</v>
+        <v>6540.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89783</v>
+        <v>39221</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruno Fernandes</t>
+          <t>João Pedro Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>9849.84</v>
+        <v>3729.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3748</v>
+        <v>37621</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Heitor Ferreira</t>
+          <t>Esther da Conceição</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>11366.42</v>
+        <v>7467.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>47027</v>
+        <v>24703</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isabella Pinto</t>
+          <t>Joana Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>6908.08</v>
+        <v>6641.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6706</v>
+        <v>65618</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stephany Castro</t>
+          <t>Marina Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>10091.64</v>
+        <v>10926.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29688</v>
+        <v>23842</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Kamilly Barbosa</t>
+          <t>Elisa Azevedo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>8056.25</v>
+        <v>8684.24</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_3.xlsx
+++ b/data/input/absenteeism_data_3.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31536</v>
+        <v>15615</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Miguel Novaes</t>
+          <t>Sr. Rodrigo Fogaça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>3606.19</v>
+        <v>3624.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68965</v>
+        <v>61473</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriel Sales</t>
+          <t>Thales Duarte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>3127.05</v>
+        <v>10412.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48398</v>
+        <v>97520</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agatha da Rosa</t>
+          <t>Beatriz Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>12481.63</v>
+        <v>3069.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11878</v>
+        <v>92789</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Letícia Ribeiro</t>
+          <t>Sophie Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>4673.88</v>
+        <v>8385.190000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41024</v>
+        <v>90128</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beatriz Jesus</t>
+          <t>Sr. Benjamin Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>6540.34</v>
+        <v>3513.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39221</v>
+        <v>81362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Pedro Fogaça</t>
+          <t>Ana Júlia Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,80 +639,80 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>3729.67</v>
+        <v>6967.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37621</v>
+        <v>50241</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Esther da Conceição</t>
+          <t>Noah Freitas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>7467.38</v>
+        <v>3852.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24703</v>
+        <v>14277</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Joana Duarte</t>
+          <t>Paulo Ramos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>6641.13</v>
+        <v>9024.790000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65618</v>
+        <v>37292</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marina Gomes</t>
+          <t>Bianca Ribeiro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,31 +722,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>10926.48</v>
+        <v>4347.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23842</v>
+        <v>94091</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Elisa Azevedo</t>
+          <t>Olivia Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>8684.24</v>
+        <v>3150.88</v>
       </c>
     </row>
   </sheetData>
